--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba449d1ef328756b/Documents/CS 428/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba449d1ef328756b/Documents/CS 428/galxy.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75CCEDDD-ED1F-48E0-A833-6609DACB7C85}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -567,6 +568,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -599,9 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -626,24 +627,6 @@
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -749,6 +732,24 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -906,15 +907,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{734E70CB-A9EB-4BA4-8636-9ED8CBD761EA}" name="Table3" displayName="Table3" ref="B3:G30" totalsRowShown="0" dataDxfId="0" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{734E70CB-A9EB-4BA4-8636-9ED8CBD761EA}" name="Table3" displayName="Table3" ref="B3:G30" totalsRowShown="0" dataDxfId="6" headerRowCellStyle="Heading 3">
   <autoFilter ref="B3:G30" xr:uid="{BD14865C-AF8C-4108-9A95-CF4E6FB559B2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{054BF27F-80A7-40BE-9BF7-738C368AACFB}" name="ACTIVITY" dataDxfId="6" dataCellStyle="Activity"/>
-    <tableColumn id="2" xr3:uid="{E9A86654-FE26-4CA7-B6E8-1570913F3499}" name="PLAN START" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CEC25887-D231-4199-A64D-0B110E43837C}" name="PLAN DURATION" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BCB4442D-5142-474C-846B-B858E4315244}" name="ACTUAL START" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{193F683F-0A12-4671-B87D-77BB1C9E71B5}" name="ACTUAL DURATION" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{8BBE0489-92DD-464B-830E-DFD0DB4E8E75}" name="PERCENT COMPLETE" dataDxfId="1" dataCellStyle="Percent Complete"/>
+    <tableColumn id="1" xr3:uid="{054BF27F-80A7-40BE-9BF7-738C368AACFB}" name="ACTIVITY" dataDxfId="5" dataCellStyle="Activity"/>
+    <tableColumn id="2" xr3:uid="{E9A86654-FE26-4CA7-B6E8-1570913F3499}" name="PLAN START" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CEC25887-D231-4199-A64D-0B110E43837C}" name="PLAN DURATION" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BCB4442D-5142-474C-846B-B858E4315244}" name="ACTUAL START" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{193F683F-0A12-4671-B87D-77BB1C9E71B5}" name="ACTUAL DURATION" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8BBE0489-92DD-464B-830E-DFD0DB4E8E75}" name="PERCENT COMPLETE" dataDxfId="0" dataCellStyle="Percent Complete"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1153,8 +1154,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1168,7 @@
     <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="4" customWidth="1"/>
     <col min="8" max="27" width="5.625" style="1" customWidth="1"/>
-    <col min="28" max="53" width="5.625" customWidth="1"/>
+    <col min="28" max="65" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1181,13 +1182,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1195,48 +1196,48 @@
         <v>1</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="30"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="31"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="32"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35"/>
       <c r="AH2" s="18"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="2:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
@@ -1257,140 +1258,176 @@
       <c r="G3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="24">
         <v>43151</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="24">
         <v>43152</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="24">
         <v>43153</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="24">
         <v>43154</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="24">
         <v>43155</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="24">
         <v>43156</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="24">
         <v>43157</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="24">
         <v>43158</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="24">
         <v>43159</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="24">
         <v>43160</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="24">
         <v>43161</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3" s="24">
         <v>43162</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3" s="24">
         <v>43163</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="24">
         <v>43164</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="24">
         <v>43165</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="24">
         <v>43166</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="24">
         <v>43167</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3" s="24">
         <v>43168</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="24">
         <v>43169</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="24">
         <v>43170</v>
       </c>
-      <c r="AB3" s="35">
+      <c r="AB3" s="24">
         <v>43171</v>
       </c>
-      <c r="AC3" s="35">
+      <c r="AC3" s="24">
         <v>43172</v>
       </c>
-      <c r="AD3" s="35">
+      <c r="AD3" s="24">
         <v>43173</v>
       </c>
-      <c r="AE3" s="35">
+      <c r="AE3" s="24">
         <v>43174</v>
       </c>
-      <c r="AF3" s="35">
+      <c r="AF3" s="24">
         <v>43175</v>
       </c>
-      <c r="AG3" s="35">
+      <c r="AG3" s="24">
         <v>43176</v>
       </c>
-      <c r="AH3" s="35">
+      <c r="AH3" s="24">
         <v>43177</v>
       </c>
-      <c r="AI3" s="35">
+      <c r="AI3" s="24">
         <v>43178</v>
       </c>
-      <c r="AJ3" s="35">
+      <c r="AJ3" s="24">
         <v>43179</v>
       </c>
-      <c r="AK3" s="35">
+      <c r="AK3" s="24">
         <v>43180</v>
       </c>
-      <c r="AL3" s="35">
+      <c r="AL3" s="24">
         <v>43181</v>
       </c>
-      <c r="AM3" s="35">
+      <c r="AM3" s="24">
         <v>43182</v>
       </c>
-      <c r="AN3" s="35">
+      <c r="AN3" s="24">
         <v>43183</v>
       </c>
-      <c r="AO3" s="35">
+      <c r="AO3" s="24">
         <v>43184</v>
       </c>
-      <c r="AP3" s="35">
+      <c r="AP3" s="24">
         <v>43185</v>
       </c>
-      <c r="AQ3" s="35">
+      <c r="AQ3" s="24">
         <v>43186</v>
       </c>
-      <c r="AR3" s="35">
+      <c r="AR3" s="24">
         <v>43187</v>
       </c>
-      <c r="AS3" s="35">
+      <c r="AS3" s="24">
         <v>43188</v>
       </c>
-      <c r="AT3" s="35">
+      <c r="AT3" s="24">
         <v>43189</v>
       </c>
-      <c r="AU3" s="35">
+      <c r="AU3" s="24">
         <v>43190</v>
       </c>
-      <c r="AV3" s="35">
+      <c r="AV3" s="24">
         <v>43191</v>
       </c>
-      <c r="AW3" s="35">
+      <c r="AW3" s="24">
         <v>43192</v>
       </c>
-      <c r="AX3" s="35">
+      <c r="AX3" s="24">
         <v>43193</v>
       </c>
-      <c r="AY3" s="35">
+      <c r="AY3" s="24">
         <v>43194</v>
       </c>
-      <c r="AZ3" s="35">
+      <c r="AZ3" s="24">
         <v>43195</v>
+      </c>
+      <c r="BA3" s="24">
+        <v>43196</v>
+      </c>
+      <c r="BB3" s="24">
+        <v>43197</v>
+      </c>
+      <c r="BC3" s="24">
+        <v>43198</v>
+      </c>
+      <c r="BD3" s="24">
+        <v>43199</v>
+      </c>
+      <c r="BE3" s="24">
+        <v>43200</v>
+      </c>
+      <c r="BF3" s="24">
+        <v>43201</v>
+      </c>
+      <c r="BG3" s="24">
+        <v>43202</v>
+      </c>
+      <c r="BH3" s="24">
+        <v>43203</v>
+      </c>
+      <c r="BI3" s="24">
+        <v>43204</v>
+      </c>
+      <c r="BJ3" s="24">
+        <v>43205</v>
+      </c>
+      <c r="BK3" s="24">
+        <v>43206</v>
+      </c>
+      <c r="BL3" s="24">
+        <v>43207</v>
       </c>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,10 +1639,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1621,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1701,7 +1738,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1714,10 +1751,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1730,10 +1767,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1765,7 +1802,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1778,10 +1815,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1797,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1826,10 +1863,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
